--- a/Test Sheet-NC.xlsx
+++ b/Test Sheet-NC.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="763">
   <si>
     <t>PREFERRED ADDRESS LINE 1</t>
   </si>
@@ -302,6 +302,2004 @@
   </si>
   <si>
     <t>E3B 0B2</t>
+  </si>
+  <si>
+    <t>277 Berkley Dr</t>
+  </si>
+  <si>
+    <t>New Maryland</t>
+  </si>
+  <si>
+    <t>E3C 1B9</t>
+  </si>
+  <si>
+    <t>109-1057 Don Mills Rd</t>
+  </si>
+  <si>
+    <t>North York</t>
+  </si>
+  <si>
+    <t>M3C 1W9</t>
+  </si>
+  <si>
+    <t>3-693 Lorne St</t>
+  </si>
+  <si>
+    <t>Sudbury</t>
+  </si>
+  <si>
+    <t>P3C 4R4</t>
+  </si>
+  <si>
+    <t>603-40 Boteler St</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>K1N 9C8</t>
+  </si>
+  <si>
+    <t>1002-390 Burwell St</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>N6B 0A1</t>
+  </si>
+  <si>
+    <t>744 Sugarloaf St</t>
+  </si>
+  <si>
+    <t>Port Colborne</t>
+  </si>
+  <si>
+    <t>L3K 2R7</t>
+  </si>
+  <si>
+    <t>114 Ost Ave</t>
+  </si>
+  <si>
+    <t>L3K 4A2</t>
+  </si>
+  <si>
+    <t>613 Clarence St</t>
+  </si>
+  <si>
+    <t>L3K 3H6</t>
+  </si>
+  <si>
+    <t>2904 Josphine St</t>
+  </si>
+  <si>
+    <t>Chemainus</t>
+  </si>
+  <si>
+    <t>V0R 1K3</t>
+  </si>
+  <si>
+    <t>452 Scarborough Golf Club Rd Suite 314</t>
+  </si>
+  <si>
+    <t>M1G 1H1</t>
+  </si>
+  <si>
+    <t>1031 Epic Rd</t>
+  </si>
+  <si>
+    <t>Haliburton</t>
+  </si>
+  <si>
+    <t>K0M 1S0</t>
+  </si>
+  <si>
+    <t>48 Case Rd</t>
+  </si>
+  <si>
+    <t>Sault Ste. Marie</t>
+  </si>
+  <si>
+    <t>P6A 6J8</t>
+  </si>
+  <si>
+    <t>85 Logwood Dr</t>
+  </si>
+  <si>
+    <t>Vaughan</t>
+  </si>
+  <si>
+    <t>L6A 3C9</t>
+  </si>
+  <si>
+    <t>394 Estate Dr</t>
+  </si>
+  <si>
+    <t>Sherwood Park</t>
+  </si>
+  <si>
+    <t>T8B 1L8</t>
+  </si>
+  <si>
+    <t>34 Pommel Cres</t>
+  </si>
+  <si>
+    <t>K2M 1A2</t>
+  </si>
+  <si>
+    <t>20 Schaubroeck Rd</t>
+  </si>
+  <si>
+    <t>La Salle</t>
+  </si>
+  <si>
+    <t>R0G 0A1</t>
+  </si>
+  <si>
+    <t>3-3700 Highland Park Road</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>V0E1B4</t>
+  </si>
+  <si>
+    <t>69 jamieson Ct new westminster</t>
+  </si>
+  <si>
+    <t>New Westminster</t>
+  </si>
+  <si>
+    <t>V3L 5R3</t>
+  </si>
+  <si>
+    <t>11 Waterloo St</t>
+  </si>
+  <si>
+    <t>Moncton</t>
+  </si>
+  <si>
+    <t>E1C 1A7</t>
+  </si>
+  <si>
+    <t>07- 77 Dunfield Ave</t>
+  </si>
+  <si>
+    <t>M4S 2H3</t>
+  </si>
+  <si>
+    <t>102-4360 Heritage Lane</t>
+  </si>
+  <si>
+    <t>Port Alberni</t>
+  </si>
+  <si>
+    <t>V9y 3c4</t>
+  </si>
+  <si>
+    <t>55 Sierra Morena Manor SW</t>
+  </si>
+  <si>
+    <t>T3H 1S9</t>
+  </si>
+  <si>
+    <t>91 ScenicRiseNW</t>
+  </si>
+  <si>
+    <t>T3L 1A7</t>
+  </si>
+  <si>
+    <t>Site 245 RR 2 Box 1</t>
+  </si>
+  <si>
+    <t>Kenora</t>
+  </si>
+  <si>
+    <t>P9N 3W8</t>
+  </si>
+  <si>
+    <t>302 - 4985 Quebec Street</t>
+  </si>
+  <si>
+    <t>V5W 2N3</t>
+  </si>
+  <si>
+    <t>200 Lett Street, Suite 107</t>
+  </si>
+  <si>
+    <t>K1R 0A7</t>
+  </si>
+  <si>
+    <t>293 Lake street</t>
+  </si>
+  <si>
+    <t>Peterborough</t>
+  </si>
+  <si>
+    <t>Ont</t>
+  </si>
+  <si>
+    <t>K9J 2H5</t>
+  </si>
+  <si>
+    <t>604-430 Webb Pl</t>
+  </si>
+  <si>
+    <t>R3B 3J7</t>
+  </si>
+  <si>
+    <t>15-20 Brockton Ave</t>
+  </si>
+  <si>
+    <t>M6K 1S5</t>
+  </si>
+  <si>
+    <t>16 Pinehurst Ln</t>
+  </si>
+  <si>
+    <t>Minesing</t>
+  </si>
+  <si>
+    <t>L9X 0C7</t>
+  </si>
+  <si>
+    <t>1155 Midland Ave.#201</t>
+  </si>
+  <si>
+    <t>M1K 4H3</t>
+  </si>
+  <si>
+    <t>33 Davisville Ave. #1011</t>
+  </si>
+  <si>
+    <t>M4S 2Y9</t>
+  </si>
+  <si>
+    <t>506-2829 Arbutus Road</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>V8N 5X5</t>
+  </si>
+  <si>
+    <t>1505 Baseline Rd. #409</t>
+  </si>
+  <si>
+    <t>K2C 3L4</t>
+  </si>
+  <si>
+    <t>Holden Day Wilson</t>
+  </si>
+  <si>
+    <t>Box 52 TD Tower</t>
+  </si>
+  <si>
+    <t>M5K 1E7</t>
+  </si>
+  <si>
+    <t>M3A 2R7</t>
+  </si>
+  <si>
+    <t>120 Townhaven Place #517</t>
+  </si>
+  <si>
+    <t>M1K 5H6</t>
+  </si>
+  <si>
+    <t>44 Valleywoods Rd.#1506</t>
+  </si>
+  <si>
+    <t>26 True Davidson Drive</t>
+  </si>
+  <si>
+    <t>M4W 3X5</t>
+  </si>
+  <si>
+    <t>Teck Residence</t>
+  </si>
+  <si>
+    <t>51-4th Street</t>
+  </si>
+  <si>
+    <t>Kirkland Lake</t>
+  </si>
+  <si>
+    <t>P2N 1T2</t>
+  </si>
+  <si>
+    <t>305-1700 Eglinton Ave E</t>
+  </si>
+  <si>
+    <t>M4A 2X4</t>
+  </si>
+  <si>
+    <t>125 Dunkirk Ave</t>
+  </si>
+  <si>
+    <t>Sutton West</t>
+  </si>
+  <si>
+    <t>L0E 1R0</t>
+  </si>
+  <si>
+    <t>120 Burlock Beach Rd</t>
+  </si>
+  <si>
+    <t>E4B 2G1</t>
+  </si>
+  <si>
+    <t>9 Milligan St</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>L3Z 0A6</t>
+  </si>
+  <si>
+    <t>14511 Rue Des Roitelets</t>
+  </si>
+  <si>
+    <t>Mirabel</t>
+  </si>
+  <si>
+    <t>J7N 1J3</t>
+  </si>
+  <si>
+    <t>114 Confederation Villas Nw</t>
+  </si>
+  <si>
+    <t>T2L 2K9</t>
+  </si>
+  <si>
+    <t>11 Pine Forest Rd</t>
+  </si>
+  <si>
+    <t>M4N 3E6</t>
+  </si>
+  <si>
+    <t>57 Snowshoe Millway</t>
+  </si>
+  <si>
+    <t>M2L 1T4</t>
+  </si>
+  <si>
+    <t>355 St.Clair Avenue West, #806</t>
+  </si>
+  <si>
+    <t>M5P 1N7</t>
+  </si>
+  <si>
+    <t>229 Cypress Drive</t>
+  </si>
+  <si>
+    <t>Coldstream</t>
+  </si>
+  <si>
+    <t>V1B 2Y1</t>
+  </si>
+  <si>
+    <t>5445 Gannor  Rd</t>
+  </si>
+  <si>
+    <t>V1E 2P7</t>
+  </si>
+  <si>
+    <t>1533 Edgemont Rd</t>
+  </si>
+  <si>
+    <t>V8N 4P7</t>
+  </si>
+  <si>
+    <t>3823 156A St</t>
+  </si>
+  <si>
+    <t>Surrey</t>
+  </si>
+  <si>
+    <t>V3X 1Z4</t>
+  </si>
+  <si>
+    <t>200 Charlotte St</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>L8K 4V6</t>
+  </si>
+  <si>
+    <t>136 Riley St</t>
+  </si>
+  <si>
+    <t>Waterdown</t>
+  </si>
+  <si>
+    <t>L8B 0J7</t>
+  </si>
+  <si>
+    <t>24 Hawthorne Cres</t>
+  </si>
+  <si>
+    <t>St.Albert</t>
+  </si>
+  <si>
+    <t>T8N 6N5</t>
+  </si>
+  <si>
+    <t>1310-70 Landry St</t>
+  </si>
+  <si>
+    <t>Vanier</t>
+  </si>
+  <si>
+    <t>K1L 0A8</t>
+  </si>
+  <si>
+    <t>921 Thurlow St</t>
+  </si>
+  <si>
+    <t>V6E 1W3</t>
+  </si>
+  <si>
+    <t>9-936 Mcintosh</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>S4R 4W2</t>
+  </si>
+  <si>
+    <t>405-2 Ramsgate Ln</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>B3P 2R7</t>
+  </si>
+  <si>
+    <t>2519 Poplar St</t>
+  </si>
+  <si>
+    <t>B3L 2Y9</t>
+  </si>
+  <si>
+    <t>21 10130 155Th St</t>
+  </si>
+  <si>
+    <t>V3R 0R6</t>
+  </si>
+  <si>
+    <t>48-71 Aksala Dr</t>
+  </si>
+  <si>
+    <t>Whitehorse</t>
+  </si>
+  <si>
+    <t>YT</t>
+  </si>
+  <si>
+    <t>Y1A 0M5</t>
+  </si>
+  <si>
+    <t>716-18 Jacobson Drive-Chartwell Meadowbrook</t>
+  </si>
+  <si>
+    <t>Lively</t>
+  </si>
+  <si>
+    <t>P3Y 1P7</t>
+  </si>
+  <si>
+    <t>209-14Th Ave Sw</t>
+  </si>
+  <si>
+    <t>T2R 0N7</t>
+  </si>
+  <si>
+    <t>94 Palsen St</t>
+  </si>
+  <si>
+    <t>K2G 2W5</t>
+  </si>
+  <si>
+    <t>1084 Skana Dr</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>V4M 2L3</t>
+  </si>
+  <si>
+    <t>357 Brookdale Ave</t>
+  </si>
+  <si>
+    <t>M5M 1P9</t>
+  </si>
+  <si>
+    <t>106 Neighbourly Lane</t>
+  </si>
+  <si>
+    <t>L4C 5L7</t>
+  </si>
+  <si>
+    <t>604 3410 - 20 St Sw</t>
+  </si>
+  <si>
+    <t>T2T 3Z2</t>
+  </si>
+  <si>
+    <t>21 Gladecrest Court</t>
+  </si>
+  <si>
+    <t>K2H 9K5</t>
+  </si>
+  <si>
+    <t>570 Bob-O-Link Rd</t>
+  </si>
+  <si>
+    <t>Mississauga</t>
+  </si>
+  <si>
+    <t>L5J 2P4</t>
+  </si>
+  <si>
+    <t>14-2175 Country Club Dr</t>
+  </si>
+  <si>
+    <t>Burlington</t>
+  </si>
+  <si>
+    <t>L7M 4H9</t>
+  </si>
+  <si>
+    <t>39 Flynn Crt</t>
+  </si>
+  <si>
+    <t>St Catharines</t>
+  </si>
+  <si>
+    <t>L2S 4E1</t>
+  </si>
+  <si>
+    <t>399 Prestwick Crt</t>
+  </si>
+  <si>
+    <t>L1J 7R5</t>
+  </si>
+  <si>
+    <t>5062 Sully Rd</t>
+  </si>
+  <si>
+    <t>Gores Landing</t>
+  </si>
+  <si>
+    <t>K0K 2E0</t>
+  </si>
+  <si>
+    <t>501-149 Henry St</t>
+  </si>
+  <si>
+    <t>Brantford</t>
+  </si>
+  <si>
+    <t>N3S 7K7</t>
+  </si>
+  <si>
+    <t>40 Bowles Dr</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>L1T 3Z1</t>
+  </si>
+  <si>
+    <t>215-95 Barrie Rd</t>
+  </si>
+  <si>
+    <t>Orillia</t>
+  </si>
+  <si>
+    <t>L3V 0B2</t>
+  </si>
+  <si>
+    <t>B-376 Shannon Rd</t>
+  </si>
+  <si>
+    <t>P6A 4K5</t>
+  </si>
+  <si>
+    <t>2-114 Orchard View Blvd</t>
+  </si>
+  <si>
+    <t>L1G 3N9</t>
+  </si>
+  <si>
+    <t>4250 Rue Saint-Ambroise</t>
+  </si>
+  <si>
+    <t>Montréal</t>
+  </si>
+  <si>
+    <t>H4C 3R4</t>
+  </si>
+  <si>
+    <t>586 Osler Crt</t>
+  </si>
+  <si>
+    <t>Cobourg</t>
+  </si>
+  <si>
+    <t>K9A 3L3</t>
+  </si>
+  <si>
+    <t>PO Box 62</t>
+  </si>
+  <si>
+    <t>Montney</t>
+  </si>
+  <si>
+    <t>V0C 1Y0</t>
+  </si>
+  <si>
+    <t>502-2267 Lake Shore Blvd W</t>
+  </si>
+  <si>
+    <t>Etobicoke</t>
+  </si>
+  <si>
+    <t>M8V 3X2</t>
+  </si>
+  <si>
+    <t>54 Harris Ave</t>
+  </si>
+  <si>
+    <t>L1J 5K7</t>
+  </si>
+  <si>
+    <t>61-2881 Windwood Dr</t>
+  </si>
+  <si>
+    <t>L5N 2K9</t>
+  </si>
+  <si>
+    <t>1961 Beachwood Ave</t>
+  </si>
+  <si>
+    <t>Bright's Grove</t>
+  </si>
+  <si>
+    <t>N0N 1C0</t>
+  </si>
+  <si>
+    <t>1307 Spruston Rd</t>
+  </si>
+  <si>
+    <t>Nanaimo</t>
+  </si>
+  <si>
+    <t>V9X 1S8</t>
+  </si>
+  <si>
+    <t>455 9th of Murray Rd</t>
+  </si>
+  <si>
+    <t>Frankford</t>
+  </si>
+  <si>
+    <t>K0K 2C0</t>
+  </si>
+  <si>
+    <t>77A Carrying Place Rd</t>
+  </si>
+  <si>
+    <t>Trenton</t>
+  </si>
+  <si>
+    <t>K8V 5P7</t>
+  </si>
+  <si>
+    <t>25-5190 203 St</t>
+  </si>
+  <si>
+    <t>Langley</t>
+  </si>
+  <si>
+    <t>V3A 5C5</t>
+  </si>
+  <si>
+    <t>7057 Gillespie Lane</t>
+  </si>
+  <si>
+    <t>L5W 1E8</t>
+  </si>
+  <si>
+    <t>881 The Greenway</t>
+  </si>
+  <si>
+    <t>L5G 1P7</t>
+  </si>
+  <si>
+    <t>311-638 8 Ave NE</t>
+  </si>
+  <si>
+    <t>T2E 0R2</t>
+  </si>
+  <si>
+    <t>227 Stewart Gibson Rd</t>
+  </si>
+  <si>
+    <t>Lanark</t>
+  </si>
+  <si>
+    <t>K0G 1K0</t>
+  </si>
+  <si>
+    <t>307-120 Oak St</t>
+  </si>
+  <si>
+    <t>Windsor</t>
+  </si>
+  <si>
+    <t>N9A 5E4</t>
+  </si>
+  <si>
+    <t>5402 44 Ave</t>
+  </si>
+  <si>
+    <t>Beaumont</t>
+  </si>
+  <si>
+    <t>T4X 1C6</t>
+  </si>
+  <si>
+    <t>414-1270 Maple Crossing Blvd</t>
+  </si>
+  <si>
+    <t>L7S 2J3</t>
+  </si>
+  <si>
+    <t>999 Queensborough Crt</t>
+  </si>
+  <si>
+    <t>N6G 5K1</t>
+  </si>
+  <si>
+    <t>104-33 Burma Star Rd SW</t>
+  </si>
+  <si>
+    <t>T3E 7Y9</t>
+  </si>
+  <si>
+    <t>893 Lakes Blvd</t>
+  </si>
+  <si>
+    <t>Parksville</t>
+  </si>
+  <si>
+    <t>V9P 2P8</t>
+  </si>
+  <si>
+    <t>PO Box 383 Stn Main</t>
+  </si>
+  <si>
+    <t>Manotick</t>
+  </si>
+  <si>
+    <t>K4M 1A4</t>
+  </si>
+  <si>
+    <t>27 John St</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>M9N 1J4</t>
+  </si>
+  <si>
+    <t>27 Waterthrush Cres</t>
+  </si>
+  <si>
+    <t>Kanata</t>
+  </si>
+  <si>
+    <t>K2M 2T8</t>
+  </si>
+  <si>
+    <t>11208 70 Ave NW</t>
+  </si>
+  <si>
+    <t>T6H 2H1</t>
+  </si>
+  <si>
+    <t>1904-85 Emmett Ave</t>
+  </si>
+  <si>
+    <t>M6M 5A2</t>
+  </si>
+  <si>
+    <t>PO Box 352</t>
+  </si>
+  <si>
+    <t>Ashcroft</t>
+  </si>
+  <si>
+    <t>V0K 1A0</t>
+  </si>
+  <si>
+    <t>805 Beavertail Rd</t>
+  </si>
+  <si>
+    <t>Carp</t>
+  </si>
+  <si>
+    <t>K0A 1L0</t>
+  </si>
+  <si>
+    <t>7062 Eden Dr</t>
+  </si>
+  <si>
+    <t>Chilliwack</t>
+  </si>
+  <si>
+    <t>V2R 1E6</t>
+  </si>
+  <si>
+    <t>245-3510 44 Ave SW</t>
+  </si>
+  <si>
+    <t>T3E 6W2</t>
+  </si>
+  <si>
+    <t>481 Smithfield Ave</t>
+  </si>
+  <si>
+    <t>R2V 0E2</t>
+  </si>
+  <si>
+    <t>PO Box 1921 Stn Central</t>
+  </si>
+  <si>
+    <t>T2P 2M2</t>
+  </si>
+  <si>
+    <t>45-100 Taunton Rd E</t>
+  </si>
+  <si>
+    <t>L1G 7N1</t>
+  </si>
+  <si>
+    <t>154 Battle St</t>
+  </si>
+  <si>
+    <t>Kamloops</t>
+  </si>
+  <si>
+    <t>V2C 2L2</t>
+  </si>
+  <si>
+    <t>4060 Ashby Dr</t>
+  </si>
+  <si>
+    <t>Beamsville</t>
+  </si>
+  <si>
+    <t>L3J 0G5</t>
+  </si>
+  <si>
+    <t>12 Young Ave</t>
+  </si>
+  <si>
+    <t>P2N 2B3</t>
+  </si>
+  <si>
+    <t>33 Southway Dr</t>
+  </si>
+  <si>
+    <t>Bowmanville</t>
+  </si>
+  <si>
+    <t>L1C 1C6</t>
+  </si>
+  <si>
+    <t>22 Royal Oak Dr</t>
+  </si>
+  <si>
+    <t>St. John's</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>A1G 1S3</t>
+  </si>
+  <si>
+    <t>454-162 Guelph St</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>L7G 4A6</t>
+  </si>
+  <si>
+    <t>2798 75th Ave</t>
+  </si>
+  <si>
+    <t>Grand Forks</t>
+  </si>
+  <si>
+    <t>V0H 1H2</t>
+  </si>
+  <si>
+    <t>1490 Juddhaven Rd</t>
+  </si>
+  <si>
+    <t>Port Carling</t>
+  </si>
+  <si>
+    <t>P0B 1J0</t>
+  </si>
+  <si>
+    <t>7 Goldpark Rd</t>
+  </si>
+  <si>
+    <t>Chatham</t>
+  </si>
+  <si>
+    <t>N7L 4X9</t>
+  </si>
+  <si>
+    <t>219 Robert St W</t>
+  </si>
+  <si>
+    <t>Penetanguishene</t>
+  </si>
+  <si>
+    <t>L9M 1P9</t>
+  </si>
+  <si>
+    <t>43-76 Olympus Crt</t>
+  </si>
+  <si>
+    <t>N7S 4S7</t>
+  </si>
+  <si>
+    <t>26-5833 Meadows Dr</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>V0H 1T4</t>
+  </si>
+  <si>
+    <t>54 Campbell Ave</t>
+  </si>
+  <si>
+    <t>Dartmouth</t>
+  </si>
+  <si>
+    <t>B2Y 2A9</t>
+  </si>
+  <si>
+    <t>1577 Yale St</t>
+  </si>
+  <si>
+    <t>V8R 5N5</t>
+  </si>
+  <si>
+    <t>801-55 Prince Arthur Ave</t>
+  </si>
+  <si>
+    <t>M5R 1B3</t>
+  </si>
+  <si>
+    <t>PO Box 177</t>
+  </si>
+  <si>
+    <t>Coleys Point South</t>
+  </si>
+  <si>
+    <t>A0A 1X0</t>
+  </si>
+  <si>
+    <t>1111 Cathcart Blvd</t>
+  </si>
+  <si>
+    <t>N7S 2H4</t>
+  </si>
+  <si>
+    <t>302-1733 Queen St E</t>
+  </si>
+  <si>
+    <t>M4L 6S9</t>
+  </si>
+  <si>
+    <t>415 27th St W</t>
+  </si>
+  <si>
+    <t>Saskatoon</t>
+  </si>
+  <si>
+    <t>S7L 0J8</t>
+  </si>
+  <si>
+    <t>19 Nature Dr</t>
+  </si>
+  <si>
+    <t>Ste Anne</t>
+  </si>
+  <si>
+    <t>R5H 1H2</t>
+  </si>
+  <si>
+    <t>PH12-5981 Gray Ave</t>
+  </si>
+  <si>
+    <t>V6S 0G1</t>
+  </si>
+  <si>
+    <t>58 Longbow Rd</t>
+  </si>
+  <si>
+    <t>N6G 1Y7</t>
+  </si>
+  <si>
+    <t>405-3570 5th Ave</t>
+  </si>
+  <si>
+    <t>S4T 0M2</t>
+  </si>
+  <si>
+    <t>732 Forbes River Rd</t>
+  </si>
+  <si>
+    <t>Kaministiquia</t>
+  </si>
+  <si>
+    <t>P0T 1X0</t>
+  </si>
+  <si>
+    <t>863 9th Ave E</t>
+  </si>
+  <si>
+    <t>Owen Sound</t>
+  </si>
+  <si>
+    <t>N4K 3E8</t>
+  </si>
+  <si>
+    <t>309-1100 Henderson Hwy</t>
+  </si>
+  <si>
+    <t>R2G 1L2</t>
+  </si>
+  <si>
+    <t>543 ch du Lac-Clair</t>
+  </si>
+  <si>
+    <t>Lachute</t>
+  </si>
+  <si>
+    <t>J8H 3W8</t>
+  </si>
+  <si>
+    <t>23 Delmaere Rd</t>
+  </si>
+  <si>
+    <t>Alban</t>
+  </si>
+  <si>
+    <t>P0M 1A0</t>
+  </si>
+  <si>
+    <t>9058 av Pierre-de Coubertin</t>
+  </si>
+  <si>
+    <t>H1L 2H1</t>
+  </si>
+  <si>
+    <t>1207 Bellevue Ave SE</t>
+  </si>
+  <si>
+    <t>T2G 4L3</t>
+  </si>
+  <si>
+    <t>20 Macklaim Dr</t>
+  </si>
+  <si>
+    <t>Parry Sound</t>
+  </si>
+  <si>
+    <t>P2A 2Z2</t>
+  </si>
+  <si>
+    <t>124 Franktown Cemetary Rd</t>
+  </si>
+  <si>
+    <t>Smiths Falls</t>
+  </si>
+  <si>
+    <t>K7A 4S7</t>
+  </si>
+  <si>
+    <t>72 Monck Ave</t>
+  </si>
+  <si>
+    <t>R2H 1W6</t>
+  </si>
+  <si>
+    <t>647 Queen St</t>
+  </si>
+  <si>
+    <t>S4T 4A2</t>
+  </si>
+  <si>
+    <t>299 Beechgrove Dr</t>
+  </si>
+  <si>
+    <t>Scarborough</t>
+  </si>
+  <si>
+    <t>M1E 4A2</t>
+  </si>
+  <si>
+    <t>Apt C-7850 Davidson Rd</t>
+  </si>
+  <si>
+    <t>Sooke</t>
+  </si>
+  <si>
+    <t>V9Z 0R3</t>
+  </si>
+  <si>
+    <t>659 Sterling Line</t>
+  </si>
+  <si>
+    <t>Wheatley</t>
+  </si>
+  <si>
+    <t>N0P 2P0</t>
+  </si>
+  <si>
+    <t>74 New York Ave</t>
+  </si>
+  <si>
+    <t>Wasaga Beach</t>
+  </si>
+  <si>
+    <t>L9Z 3A8</t>
+  </si>
+  <si>
+    <t>1210-305 Roehampton Ave</t>
+  </si>
+  <si>
+    <t>M4P 0B2</t>
+  </si>
+  <si>
+    <t>46 Lester St</t>
+  </si>
+  <si>
+    <t>A1E 2P7</t>
+  </si>
+  <si>
+    <t>PO Box 1316</t>
+  </si>
+  <si>
+    <t>Merritt</t>
+  </si>
+  <si>
+    <t>V1K 1B8</t>
+  </si>
+  <si>
+    <t>217 Benchlands Terr</t>
+  </si>
+  <si>
+    <t>Canmore</t>
+  </si>
+  <si>
+    <t>T1W 1G1</t>
+  </si>
+  <si>
+    <t>4777 Upland Rd</t>
+  </si>
+  <si>
+    <t>Campbell River</t>
+  </si>
+  <si>
+    <t>V9H 1B9</t>
+  </si>
+  <si>
+    <t>7707 80 Ave NW</t>
+  </si>
+  <si>
+    <t>T6C 0S3</t>
+  </si>
+  <si>
+    <t>21 James St</t>
+  </si>
+  <si>
+    <t>Killaloe</t>
+  </si>
+  <si>
+    <t>K0J 2A0</t>
+  </si>
+  <si>
+    <t>2390 9th Ave E</t>
+  </si>
+  <si>
+    <t>N4K 3H5</t>
+  </si>
+  <si>
+    <t>27 Paddy Dunns Cir</t>
+  </si>
+  <si>
+    <t>Springwater</t>
+  </si>
+  <si>
+    <t>L9X 0T1</t>
+  </si>
+  <si>
+    <t>6332 Herberts Corners Rd</t>
+  </si>
+  <si>
+    <t>Greely</t>
+  </si>
+  <si>
+    <t>K4P 1H3</t>
+  </si>
+  <si>
+    <t>6 Blue Heron Dr</t>
+  </si>
+  <si>
+    <t>Pefferlaw</t>
+  </si>
+  <si>
+    <t>L0E 1N0</t>
+  </si>
+  <si>
+    <t>1409 Acadia Dr SE</t>
+  </si>
+  <si>
+    <t>T2J 4C6</t>
+  </si>
+  <si>
+    <t>57 Lewis St</t>
+  </si>
+  <si>
+    <t>M4M 2H2</t>
+  </si>
+  <si>
+    <t>205-46000 Thomas Rd</t>
+  </si>
+  <si>
+    <t>V2R 5W6</t>
+  </si>
+  <si>
+    <t>158 Humbercrest Blvd</t>
+  </si>
+  <si>
+    <t>M6S 4L3</t>
+  </si>
+  <si>
+    <t>7816 Birch Dr</t>
+  </si>
+  <si>
+    <t>Washago</t>
+  </si>
+  <si>
+    <t>L0K 2B0</t>
+  </si>
+  <si>
+    <t>41 Badgerow Ave</t>
+  </si>
+  <si>
+    <t>M4M 1V5</t>
+  </si>
+  <si>
+    <t>A311-20716 Willoughby Town Centre Dr</t>
+  </si>
+  <si>
+    <t>V2Y 3J7</t>
+  </si>
+  <si>
+    <t>PO Box 111</t>
+  </si>
+  <si>
+    <t>Creston</t>
+  </si>
+  <si>
+    <t>V0B 1G0</t>
+  </si>
+  <si>
+    <t>998 Rock Rd</t>
+  </si>
+  <si>
+    <t>Douro-dummer</t>
+  </si>
+  <si>
+    <t>K0L 3A0</t>
+  </si>
+  <si>
+    <t>7371 Davemark Crt</t>
+  </si>
+  <si>
+    <t>L5N 7P3</t>
+  </si>
+  <si>
+    <t>1046 Jay Cres</t>
+  </si>
+  <si>
+    <t>Squamish</t>
+  </si>
+  <si>
+    <t>V8B 0P3</t>
+  </si>
+  <si>
+    <t>3911 Primrose Lane</t>
+  </si>
+  <si>
+    <t>Vineland</t>
+  </si>
+  <si>
+    <t>L0R 2C0</t>
+  </si>
+  <si>
+    <t>112 Fairview Ave</t>
+  </si>
+  <si>
+    <t>N6C 4T6</t>
+  </si>
+  <si>
+    <t>65 exten Toronto Rd</t>
+  </si>
+  <si>
+    <t>Mayfield</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>C0A 1N0</t>
+  </si>
+  <si>
+    <t>16 Oriole Cres</t>
+  </si>
+  <si>
+    <t>N1G 1J4</t>
+  </si>
+  <si>
+    <t>3225 Singleton Ave</t>
+  </si>
+  <si>
+    <t>N6L 0B5</t>
+  </si>
+  <si>
+    <t>Christopher Lake</t>
+  </si>
+  <si>
+    <t>S0J 0N0</t>
+  </si>
+  <si>
+    <t>3645 Dix Rd</t>
+  </si>
+  <si>
+    <t>V9T 2W1</t>
+  </si>
+  <si>
+    <t>275-500 Rivercrest Cres</t>
+  </si>
+  <si>
+    <t>St. Albert</t>
+  </si>
+  <si>
+    <t>T8N 3B9</t>
+  </si>
+  <si>
+    <t>307-483 Linwell Rd</t>
+  </si>
+  <si>
+    <t>L2M 2P6</t>
+  </si>
+  <si>
+    <t>13445 Loyalist Pky</t>
+  </si>
+  <si>
+    <t>Picton</t>
+  </si>
+  <si>
+    <t>K0K 2T0</t>
+  </si>
+  <si>
+    <t>PO Box 334</t>
+  </si>
+  <si>
+    <t>New Sarepta</t>
+  </si>
+  <si>
+    <t>T0B 3M0</t>
+  </si>
+  <si>
+    <t>205-59 22 Ave SW</t>
+  </si>
+  <si>
+    <t>T2S 3C7</t>
+  </si>
+  <si>
+    <t>146 Faraday St</t>
+  </si>
+  <si>
+    <t>K1Y 3M4</t>
+  </si>
+  <si>
+    <t>401-340 Lonsdale Rd</t>
+  </si>
+  <si>
+    <t>M5P 1R2</t>
+  </si>
+  <si>
+    <t>203-1265 Wellington St W</t>
+  </si>
+  <si>
+    <t>K1Y 4L2</t>
+  </si>
+  <si>
+    <t>570 3rd Blvd</t>
+  </si>
+  <si>
+    <t>Kingsville</t>
+  </si>
+  <si>
+    <t>N9Y 3W2</t>
+  </si>
+  <si>
+    <t>114 1er Chemin du Lac-Clair</t>
+  </si>
+  <si>
+    <t>Falardeau</t>
+  </si>
+  <si>
+    <t>G0V 1C0</t>
+  </si>
+  <si>
+    <t>34-765 Oklahoma Dr</t>
+  </si>
+  <si>
+    <t>Pickering</t>
+  </si>
+  <si>
+    <t>L1W 3C9</t>
+  </si>
+  <si>
+    <t>410-6117 Uplands Drive</t>
+  </si>
+  <si>
+    <t>V9V 1W8</t>
+  </si>
+  <si>
+    <t>36 Stockman Cres</t>
+  </si>
+  <si>
+    <t>L7G 1J7</t>
+  </si>
+  <si>
+    <t>4520 Credit Pointe Dr</t>
+  </si>
+  <si>
+    <t>L5M 3M2</t>
+  </si>
+  <si>
+    <t>PO Box 2551 Stn Main</t>
+  </si>
+  <si>
+    <t>V8B 0B7</t>
+  </si>
+  <si>
+    <t>52 Cloverleaf Dr</t>
+  </si>
+  <si>
+    <t>New Minas</t>
+  </si>
+  <si>
+    <t>B4N 4N9</t>
+  </si>
+  <si>
+    <t>850 montee Lafontaine</t>
+  </si>
+  <si>
+    <t>Casselman</t>
+  </si>
+  <si>
+    <t>K0A 1M0</t>
+  </si>
+  <si>
+    <t>720 Fanshawe Park Rd E</t>
+  </si>
+  <si>
+    <t>N5X 2B9</t>
+  </si>
+  <si>
+    <t>25504 Sh 642</t>
+  </si>
+  <si>
+    <t>Sturgeon County</t>
+  </si>
+  <si>
+    <t>T8R 2A3</t>
+  </si>
+  <si>
+    <t>P.O. Box 128</t>
+  </si>
+  <si>
+    <t>Birch Hills</t>
+  </si>
+  <si>
+    <t>S0J 0G0</t>
+  </si>
+  <si>
+    <t>1040 Mapleview Rd</t>
+  </si>
+  <si>
+    <t>245 Rittenhouse Rd</t>
+  </si>
+  <si>
+    <t>Kitchener</t>
+  </si>
+  <si>
+    <t>N2E 2V3</t>
+  </si>
+  <si>
+    <t>16 Beechwood Path</t>
+  </si>
+  <si>
+    <t>Huntsville</t>
+  </si>
+  <si>
+    <t>P1H 1S8</t>
+  </si>
+  <si>
+    <t>1-977 Convent Pl</t>
+  </si>
+  <si>
+    <t>V8V 2Y9</t>
+  </si>
+  <si>
+    <t>6 rue Annick</t>
+  </si>
+  <si>
+    <t>Morin-heights</t>
+  </si>
+  <si>
+    <t>J0R 1H0</t>
+  </si>
+  <si>
+    <t>53 Alexandria Ave</t>
+  </si>
+  <si>
+    <t>St Thomas</t>
+  </si>
+  <si>
+    <t>N5P 3M7</t>
+  </si>
+  <si>
+    <t>P.O. Box 125</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>L0E 1T0</t>
+  </si>
+  <si>
+    <t>12 Oak Bluff Rd</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>R7C 1A2</t>
+  </si>
+  <si>
+    <t>Dollard des Ormeaux</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>H9A3H5</t>
+  </si>
+  <si>
+    <t>5580 South Talbot Rd</t>
+  </si>
+  <si>
+    <t>Maidstone</t>
+  </si>
+  <si>
+    <t>N0R 1K0</t>
+  </si>
+  <si>
+    <t>1203-155 Front St N</t>
+  </si>
+  <si>
+    <t>N7T 7V5</t>
+  </si>
+  <si>
+    <t>1004-1967 Barclay S</t>
+  </si>
+  <si>
+    <t>V6G 1L1</t>
+  </si>
+  <si>
+    <t>PO Box 104</t>
+  </si>
+  <si>
+    <t>Mindemoya</t>
+  </si>
+  <si>
+    <t>P0P 1S0</t>
+  </si>
+  <si>
+    <t>3925 Malagash Rd</t>
+  </si>
+  <si>
+    <t>Malagash Point</t>
+  </si>
+  <si>
+    <t>B0K 1E0</t>
+  </si>
+  <si>
+    <t>16 Acres</t>
+  </si>
+  <si>
+    <t>Wentworth</t>
+  </si>
+  <si>
+    <t>J8H 0A3</t>
+  </si>
+  <si>
+    <t>584 Artisan Ln</t>
+  </si>
+  <si>
+    <t>Bowen Island</t>
+  </si>
+  <si>
+    <t>V0N1G1</t>
+  </si>
+  <si>
+    <t>215-1700 Eglinton Ave E</t>
+  </si>
+  <si>
+    <t>80 Mill St # 307</t>
+  </si>
+  <si>
+    <t>M5A 4T3</t>
+  </si>
+  <si>
+    <t>2504-1255 Bayly St</t>
+  </si>
+  <si>
+    <t>L1W0B6</t>
+  </si>
+  <si>
+    <t>116 The Esplanade Ap. 213</t>
+  </si>
+  <si>
+    <t>M5E 1Y7</t>
+  </si>
+  <si>
+    <t>107-400 Rue Thomas</t>
+  </si>
+  <si>
+    <t>J8H 1V7</t>
+  </si>
+  <si>
+    <t>121 Roxborough St West</t>
+  </si>
+  <si>
+    <t>M5R 1T9</t>
+  </si>
+  <si>
+    <t>301-280 Boulevard Hymus</t>
+  </si>
+  <si>
+    <t>Pointe Claire</t>
+  </si>
+  <si>
+    <t>H9R 6B6</t>
+  </si>
+  <si>
+    <t>5571 County Rd 27</t>
+  </si>
+  <si>
+    <t>Williamstown</t>
+  </si>
+  <si>
+    <t>K0C 2J0</t>
+  </si>
+  <si>
+    <t>72 Glengarry Cres</t>
+  </si>
+  <si>
+    <t>West Vancouver</t>
+  </si>
+  <si>
+    <t>V7S 1B5</t>
+  </si>
+  <si>
+    <t>202 - 133 E Esplanade Ave</t>
+  </si>
+  <si>
+    <t>North Vancouver</t>
+  </si>
+  <si>
+    <t>V7L 1A1</t>
+  </si>
+  <si>
+    <t>244 Rue Savoie Est</t>
+  </si>
+  <si>
+    <t>Caraquet</t>
+  </si>
+  <si>
+    <t>E1W 1A4</t>
+  </si>
+  <si>
+    <t>192 Hartson Rd</t>
+  </si>
+  <si>
+    <t>N6H 5B7</t>
+  </si>
+  <si>
+    <t>52 Sunnybrooke Dr</t>
+  </si>
+  <si>
+    <t>K2M 2P2</t>
+  </si>
+  <si>
+    <t>39 Lemonwood Dr</t>
+  </si>
+  <si>
+    <t>M9A 4L3</t>
+  </si>
+  <si>
+    <t>608-707 St Clair Ave W</t>
+  </si>
+  <si>
+    <t>M6C 4A1</t>
+  </si>
+  <si>
+    <t>186 Centennial Dr</t>
+  </si>
+  <si>
+    <t>PO Box 1878</t>
+  </si>
+  <si>
+    <t>Minnedosa</t>
+  </si>
+  <si>
+    <t>R0J 1E0</t>
+  </si>
+  <si>
+    <t>67 Byron Avenue East</t>
+  </si>
+  <si>
+    <t>N6C 1C6</t>
+  </si>
+  <si>
+    <t>509-580 Christie St</t>
+  </si>
+  <si>
+    <t>M6G 3E3</t>
+  </si>
+  <si>
+    <t>2575 Edenhurst Dr</t>
+  </si>
+  <si>
+    <t>L5A 2L4</t>
+  </si>
+  <si>
+    <t>9 Falconwood Pl</t>
+  </si>
+  <si>
+    <t>Brampton</t>
+  </si>
+  <si>
+    <t>L6R 3J3</t>
+  </si>
+  <si>
+    <t>2358 Clarke Drive</t>
+  </si>
+  <si>
+    <t>Abbotsford</t>
+  </si>
+  <si>
+    <t>V2S 3V3</t>
+  </si>
+  <si>
+    <t>3505 Route 915</t>
+  </si>
+  <si>
+    <t>Hebron</t>
+  </si>
+  <si>
+    <t>E4H2C3</t>
+  </si>
+  <si>
+    <t>PO Box 2108</t>
+  </si>
+  <si>
+    <t>Bayfield</t>
+  </si>
+  <si>
+    <t>N0M 1G0</t>
+  </si>
+  <si>
+    <t>2058 Seawind Way</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>V8L 0C4</t>
+  </si>
+  <si>
+    <t>548 Steele St</t>
+  </si>
+  <si>
+    <t>L3K 4Y3</t>
+  </si>
+  <si>
+    <t>2916 9th Ave</t>
+  </si>
+  <si>
+    <t>Castlegar</t>
+  </si>
+  <si>
+    <t>V1N 2Z1</t>
+  </si>
+  <si>
+    <t>17 Dunlace Dr</t>
+  </si>
+  <si>
+    <t>M2L 2R8</t>
+  </si>
+  <si>
+    <t>111 Parkvalley Dr SE</t>
+  </si>
+  <si>
+    <t>T2J 4V1</t>
+  </si>
+  <si>
+    <t>301-130 Abbott St</t>
+  </si>
+  <si>
+    <t>Penticton</t>
+  </si>
+  <si>
+    <t>V2A 8P3</t>
+  </si>
+  <si>
+    <t>2223 Middlesmoor Cres</t>
+  </si>
+  <si>
+    <t>L7P 3X2</t>
+  </si>
+  <si>
+    <t>210 4728 53 St</t>
+  </si>
+  <si>
+    <t>V4K 2Z1</t>
+  </si>
+  <si>
+    <t>678-1333 W Broadway Vancouve</t>
+  </si>
+  <si>
+    <t>V6H 4C1</t>
+  </si>
+  <si>
+    <t>35-619 Evans Ave</t>
+  </si>
+  <si>
+    <t>M8W 2W4</t>
+  </si>
+  <si>
+    <t>Box 24</t>
+  </si>
+  <si>
+    <t>Saint Claude</t>
+  </si>
+  <si>
+    <t>R0G1Z0</t>
+  </si>
+  <si>
+    <t>45 Grand Forest Dr</t>
+  </si>
+  <si>
+    <t>Barrie</t>
+  </si>
+  <si>
+    <t>L4N8K4</t>
+  </si>
+  <si>
+    <t>47 Cross Street</t>
+  </si>
+  <si>
+    <t>Dundas</t>
+  </si>
+  <si>
+    <t>L9H 2R5</t>
+  </si>
+  <si>
+    <t>64 Safe Blvd</t>
+  </si>
+  <si>
+    <t>Belleville</t>
+  </si>
+  <si>
+    <t>K8N 2W9</t>
+  </si>
+  <si>
+    <t>28-3387 King George Blvd</t>
+  </si>
+  <si>
+    <t>V4P 1B7</t>
+  </si>
+  <si>
+    <t>701 Newcastle Boulevard</t>
+  </si>
+  <si>
+    <t>Miramichi</t>
+  </si>
+  <si>
+    <t>E1V 2L4</t>
+  </si>
+  <si>
+    <t>62 Charlotte Street</t>
+  </si>
+  <si>
+    <t>Sackville</t>
+  </si>
+  <si>
+    <t>E4L2Y7</t>
+  </si>
+  <si>
+    <t>122-80 Quebec Avenue</t>
+  </si>
+  <si>
+    <t>M6P 4B7</t>
+  </si>
+  <si>
+    <t>865 Reg Pope Blvd</t>
+  </si>
+  <si>
+    <t>Timmins</t>
+  </si>
+  <si>
+    <t>P4N8K8</t>
+  </si>
+  <si>
+    <t>321 Southbrook Drive</t>
+  </si>
+  <si>
+    <t>Binbrook</t>
+  </si>
+  <si>
+    <t>L0R1C0</t>
   </si>
 </sst>
 </file>
@@ -1319,6 +3317,5543 @@
         <v>9</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B123" s="2">
+        <v>203.0</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+      <c r="F241" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+      <c r="F243" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+      <c r="F244" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>5.149727632E9</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+      <c r="F254" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+      <c r="F255" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+      <c r="F256" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+      <c r="F257" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+      <c r="F258" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+      <c r="F259" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Test Sheet-NC.xlsx
+++ b/Test Sheet-NC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Database cleanup Pulled 10 2023" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/Test Sheet-NC.xlsx
+++ b/Test Sheet-NC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="275">
   <si>
     <t>PREFERRED ADDRESS LINE 1</t>
   </si>
@@ -841,1464 +841,6 @@
   </si>
   <si>
     <t>M2P 2H1</t>
-  </si>
-  <si>
-    <t>570 Bob-O-Link Rd</t>
-  </si>
-  <si>
-    <t>L5J 2P4</t>
-  </si>
-  <si>
-    <t>14-2175 Country Club Dr</t>
-  </si>
-  <si>
-    <t>L7M 4H9</t>
-  </si>
-  <si>
-    <t>39 Flynn Crt</t>
-  </si>
-  <si>
-    <t>St Catharines</t>
-  </si>
-  <si>
-    <t>L2S 4E1</t>
-  </si>
-  <si>
-    <t>399 Prestwick Crt</t>
-  </si>
-  <si>
-    <t>Oshawa</t>
-  </si>
-  <si>
-    <t>L1J 7R5</t>
-  </si>
-  <si>
-    <t>5062 Sully Rd</t>
-  </si>
-  <si>
-    <t>Gores Landing</t>
-  </si>
-  <si>
-    <t>K0K 2E0</t>
-  </si>
-  <si>
-    <t>501-149 Henry St</t>
-  </si>
-  <si>
-    <t>Brantford</t>
-  </si>
-  <si>
-    <t>N3S 7K7</t>
-  </si>
-  <si>
-    <t>40 Bowles Dr</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>L1T 3Z1</t>
-  </si>
-  <si>
-    <t>215-95 Barrie Rd</t>
-  </si>
-  <si>
-    <t>Orillia</t>
-  </si>
-  <si>
-    <t>L3V 0B2</t>
-  </si>
-  <si>
-    <t>B-376 Shannon Rd</t>
-  </si>
-  <si>
-    <t>Sault Ste. Marie</t>
-  </si>
-  <si>
-    <t>P6A 4K5</t>
-  </si>
-  <si>
-    <t>2-114 Orchard View Blvd</t>
-  </si>
-  <si>
-    <t>L1G 3N9</t>
-  </si>
-  <si>
-    <t>4250 Rue Saint-Ambroise</t>
-  </si>
-  <si>
-    <t>Montréal</t>
-  </si>
-  <si>
-    <t>QC</t>
-  </si>
-  <si>
-    <t>H4C 3R4</t>
-  </si>
-  <si>
-    <t>586 Osler Crt</t>
-  </si>
-  <si>
-    <t>Cobourg</t>
-  </si>
-  <si>
-    <t>K9A 3L3</t>
-  </si>
-  <si>
-    <t>PO Box 62</t>
-  </si>
-  <si>
-    <t>Montney</t>
-  </si>
-  <si>
-    <t>V0C 1Y0</t>
-  </si>
-  <si>
-    <t>502-2267 Lake Shore Blvd W</t>
-  </si>
-  <si>
-    <t>M8V 3X2</t>
-  </si>
-  <si>
-    <t>54 Harris Ave</t>
-  </si>
-  <si>
-    <t>L1J 5K7</t>
-  </si>
-  <si>
-    <t>61-2881 Windwood Dr</t>
-  </si>
-  <si>
-    <t>L5N 2K9</t>
-  </si>
-  <si>
-    <t>1961 Beachwood Ave</t>
-  </si>
-  <si>
-    <t>Bright's Grove</t>
-  </si>
-  <si>
-    <t>N0N 1C0</t>
-  </si>
-  <si>
-    <t>1307 Spruston Rd</t>
-  </si>
-  <si>
-    <t>V9X 1S8</t>
-  </si>
-  <si>
-    <t>455 9th of Murray Rd</t>
-  </si>
-  <si>
-    <t>Frankford</t>
-  </si>
-  <si>
-    <t>K0K 2C0</t>
-  </si>
-  <si>
-    <t>77A Carrying Place Rd</t>
-  </si>
-  <si>
-    <t>Trenton</t>
-  </si>
-  <si>
-    <t>K8V 5P7</t>
-  </si>
-  <si>
-    <t>25-5190 203 St</t>
-  </si>
-  <si>
-    <t>Langley</t>
-  </si>
-  <si>
-    <t>V3A 5C5</t>
-  </si>
-  <si>
-    <t>7057 Gillespie Lane</t>
-  </si>
-  <si>
-    <t>L5W 1E8</t>
-  </si>
-  <si>
-    <t>881 The Greenway</t>
-  </si>
-  <si>
-    <t>L5G 1P7</t>
-  </si>
-  <si>
-    <t>311-638 8 Ave NE</t>
-  </si>
-  <si>
-    <t>T2E 0R2</t>
-  </si>
-  <si>
-    <t>227 Stewart Gibson Rd</t>
-  </si>
-  <si>
-    <t>Lanark</t>
-  </si>
-  <si>
-    <t>K0G 1K0</t>
-  </si>
-  <si>
-    <t>307-120 Oak St</t>
-  </si>
-  <si>
-    <t>Windsor</t>
-  </si>
-  <si>
-    <t>N9A 5E4</t>
-  </si>
-  <si>
-    <t>5402 44 Ave</t>
-  </si>
-  <si>
-    <t>Beaumont</t>
-  </si>
-  <si>
-    <t>T4X 1C6</t>
-  </si>
-  <si>
-    <t>414-1270 Maple Crossing Blvd</t>
-  </si>
-  <si>
-    <t>L7S 2J3</t>
-  </si>
-  <si>
-    <t>999 Queensborough Crt</t>
-  </si>
-  <si>
-    <t>N6G 5K1</t>
-  </si>
-  <si>
-    <t>104-33 Burma Star Rd SW</t>
-  </si>
-  <si>
-    <t>T3E 7Y9</t>
-  </si>
-  <si>
-    <t>893 Lakes Blvd</t>
-  </si>
-  <si>
-    <t>Parksville</t>
-  </si>
-  <si>
-    <t>V9P 2P8</t>
-  </si>
-  <si>
-    <t>PO Box 383 Stn Main</t>
-  </si>
-  <si>
-    <t>Manotick</t>
-  </si>
-  <si>
-    <t>K4M 1A4</t>
-  </si>
-  <si>
-    <t>27 John St</t>
-  </si>
-  <si>
-    <t>York</t>
-  </si>
-  <si>
-    <t>M9N 1J4</t>
-  </si>
-  <si>
-    <t>27 Waterthrush Cres</t>
-  </si>
-  <si>
-    <t>Kanata</t>
-  </si>
-  <si>
-    <t>K2M 2T8</t>
-  </si>
-  <si>
-    <t>11208 70 Ave NW</t>
-  </si>
-  <si>
-    <t>T6H 2H1</t>
-  </si>
-  <si>
-    <t>1904-85 Emmett Ave</t>
-  </si>
-  <si>
-    <t>M6M 5A2</t>
-  </si>
-  <si>
-    <t>PO Box 352</t>
-  </si>
-  <si>
-    <t>Ashcroft</t>
-  </si>
-  <si>
-    <t>V0K 1A0</t>
-  </si>
-  <si>
-    <t>805 Beavertail Rd</t>
-  </si>
-  <si>
-    <t>Carp</t>
-  </si>
-  <si>
-    <t>K0A 1L0</t>
-  </si>
-  <si>
-    <t>7062 Eden Dr</t>
-  </si>
-  <si>
-    <t>Chilliwack</t>
-  </si>
-  <si>
-    <t>V2R 1E6</t>
-  </si>
-  <si>
-    <t>245-3510 44 Ave SW</t>
-  </si>
-  <si>
-    <t>T3E 6W2</t>
-  </si>
-  <si>
-    <t>481 Smithfield Ave</t>
-  </si>
-  <si>
-    <t>R2V 0E2</t>
-  </si>
-  <si>
-    <t>PO Box 1921 Stn Central</t>
-  </si>
-  <si>
-    <t>T2P 2M2</t>
-  </si>
-  <si>
-    <t>45-100 Taunton Rd E</t>
-  </si>
-  <si>
-    <t>L1G 7N1</t>
-  </si>
-  <si>
-    <t>154 Battle St</t>
-  </si>
-  <si>
-    <t>Kamloops</t>
-  </si>
-  <si>
-    <t>V2C 2L2</t>
-  </si>
-  <si>
-    <t>4060 Ashby Dr</t>
-  </si>
-  <si>
-    <t>Beamsville</t>
-  </si>
-  <si>
-    <t>L3J 0G5</t>
-  </si>
-  <si>
-    <t>12 Young Ave</t>
-  </si>
-  <si>
-    <t>Kirkland Lake</t>
-  </si>
-  <si>
-    <t>P2N 2B3</t>
-  </si>
-  <si>
-    <t>33 Southway Dr</t>
-  </si>
-  <si>
-    <t>Bowmanville</t>
-  </si>
-  <si>
-    <t>L1C 1C6</t>
-  </si>
-  <si>
-    <t>22 Royal Oak Dr</t>
-  </si>
-  <si>
-    <t>A1G 1S3</t>
-  </si>
-  <si>
-    <t>454-162 Guelph St</t>
-  </si>
-  <si>
-    <t>L7G 4A6</t>
-  </si>
-  <si>
-    <t>2798 75th Ave</t>
-  </si>
-  <si>
-    <t>Grand Forks</t>
-  </si>
-  <si>
-    <t>V0H 1H2</t>
-  </si>
-  <si>
-    <t>1490 Juddhaven Rd</t>
-  </si>
-  <si>
-    <t>Port Carling</t>
-  </si>
-  <si>
-    <t>P0B 1J0</t>
-  </si>
-  <si>
-    <t>7 Goldpark Rd</t>
-  </si>
-  <si>
-    <t>Chatham</t>
-  </si>
-  <si>
-    <t>N7L 4X9</t>
-  </si>
-  <si>
-    <t>219 Robert St W</t>
-  </si>
-  <si>
-    <t>Penetanguishene</t>
-  </si>
-  <si>
-    <t>L9M 1P9</t>
-  </si>
-  <si>
-    <t>43-76 Olympus Crt</t>
-  </si>
-  <si>
-    <t>Sarnia</t>
-  </si>
-  <si>
-    <t>N7S 4S7</t>
-  </si>
-  <si>
-    <t>26-5833 Meadows Dr</t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>V0H 1T4</t>
-  </si>
-  <si>
-    <t>54 Campbell Ave</t>
-  </si>
-  <si>
-    <t>Dartmouth</t>
-  </si>
-  <si>
-    <t>B2Y 2A9</t>
-  </si>
-  <si>
-    <t>1577 Yale St</t>
-  </si>
-  <si>
-    <t>V8R 5N5</t>
-  </si>
-  <si>
-    <t>801-55 Prince Arthur Ave</t>
-  </si>
-  <si>
-    <t>M5R 1B3</t>
-  </si>
-  <si>
-    <t>PO Box 177</t>
-  </si>
-  <si>
-    <t>Coleys Point South</t>
-  </si>
-  <si>
-    <t>A0A 1X0</t>
-  </si>
-  <si>
-    <t>1111 Cathcart Blvd</t>
-  </si>
-  <si>
-    <t>N7S 2H4</t>
-  </si>
-  <si>
-    <t>302-1733 Queen St E</t>
-  </si>
-  <si>
-    <t>M4L 6S9</t>
-  </si>
-  <si>
-    <t>415 27th St W</t>
-  </si>
-  <si>
-    <t>Saskatoon</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>S7L 0J8</t>
-  </si>
-  <si>
-    <t>19 Nature Dr</t>
-  </si>
-  <si>
-    <t>Ste Anne</t>
-  </si>
-  <si>
-    <t>R5H 1H2</t>
-  </si>
-  <si>
-    <t>PH12-5981 Gray Ave</t>
-  </si>
-  <si>
-    <t>V6S 0G1</t>
-  </si>
-  <si>
-    <t>58 Longbow Rd</t>
-  </si>
-  <si>
-    <t>N6G 1Y7</t>
-  </si>
-  <si>
-    <t>405-3570 5th Ave</t>
-  </si>
-  <si>
-    <t>Regina</t>
-  </si>
-  <si>
-    <t>S4T 0M2</t>
-  </si>
-  <si>
-    <t>732 Forbes River Rd</t>
-  </si>
-  <si>
-    <t>Kaministiquia</t>
-  </si>
-  <si>
-    <t>P0T 1X0</t>
-  </si>
-  <si>
-    <t>863 9th Ave E</t>
-  </si>
-  <si>
-    <t>Owen Sound</t>
-  </si>
-  <si>
-    <t>N4K 3E8</t>
-  </si>
-  <si>
-    <t>309-1100 Henderson Hwy</t>
-  </si>
-  <si>
-    <t>R2G 1L2</t>
-  </si>
-  <si>
-    <t>543 ch du Lac-Clair</t>
-  </si>
-  <si>
-    <t>Lachute</t>
-  </si>
-  <si>
-    <t>J8H 3W8</t>
-  </si>
-  <si>
-    <t>23 Delmaere Rd</t>
-  </si>
-  <si>
-    <t>Alban</t>
-  </si>
-  <si>
-    <t>P0M 1A0</t>
-  </si>
-  <si>
-    <t>9058 av Pierre-de Coubertin</t>
-  </si>
-  <si>
-    <t>H1L 2H1</t>
-  </si>
-  <si>
-    <t>1207 Bellevue Ave SE</t>
-  </si>
-  <si>
-    <t>T2G 4L3</t>
-  </si>
-  <si>
-    <t>20 Macklaim Dr</t>
-  </si>
-  <si>
-    <t>P2A 2Z2</t>
-  </si>
-  <si>
-    <t>124 Franktown Cemetary Rd</t>
-  </si>
-  <si>
-    <t>Smiths Falls</t>
-  </si>
-  <si>
-    <t>K7A 4S7</t>
-  </si>
-  <si>
-    <t>72 Monck Ave</t>
-  </si>
-  <si>
-    <t>R2H 1W6</t>
-  </si>
-  <si>
-    <t>647 Queen St</t>
-  </si>
-  <si>
-    <t>S4T 4A2</t>
-  </si>
-  <si>
-    <t>299 Beechgrove Dr</t>
-  </si>
-  <si>
-    <t>M1E 4A2</t>
-  </si>
-  <si>
-    <t>Apt C-7850 Davidson Rd</t>
-  </si>
-  <si>
-    <t>Sooke</t>
-  </si>
-  <si>
-    <t>V9Z 0R3</t>
-  </si>
-  <si>
-    <t>659 Sterling Line</t>
-  </si>
-  <si>
-    <t>Wheatley</t>
-  </si>
-  <si>
-    <t>N0P 2P0</t>
-  </si>
-  <si>
-    <t>74 New York Ave</t>
-  </si>
-  <si>
-    <t>Wasaga Beach</t>
-  </si>
-  <si>
-    <t>L9Z 3A8</t>
-  </si>
-  <si>
-    <t>1210-305 Roehampton Ave</t>
-  </si>
-  <si>
-    <t>M4P 0B2</t>
-  </si>
-  <si>
-    <t>46 Lester St</t>
-  </si>
-  <si>
-    <t>A1E 2P7</t>
-  </si>
-  <si>
-    <t>PO Box 1316</t>
-  </si>
-  <si>
-    <t>Merritt</t>
-  </si>
-  <si>
-    <t>V1K 1B8</t>
-  </si>
-  <si>
-    <t>217 Benchlands Terr</t>
-  </si>
-  <si>
-    <t>T1W 1G1</t>
-  </si>
-  <si>
-    <t>4777 Upland Rd</t>
-  </si>
-  <si>
-    <t>Campbell River</t>
-  </si>
-  <si>
-    <t>V9H 1B9</t>
-  </si>
-  <si>
-    <t>7707 80 Ave NW</t>
-  </si>
-  <si>
-    <t>T6C 0S3</t>
-  </si>
-  <si>
-    <t>21 James St</t>
-  </si>
-  <si>
-    <t>Killaloe</t>
-  </si>
-  <si>
-    <t>K0J 2A0</t>
-  </si>
-  <si>
-    <t>2390 9th Ave E</t>
-  </si>
-  <si>
-    <t>N4K 3H5</t>
-  </si>
-  <si>
-    <t>27 Paddy Dunns Cir</t>
-  </si>
-  <si>
-    <t>Springwater</t>
-  </si>
-  <si>
-    <t>L9X 0T1</t>
-  </si>
-  <si>
-    <t>6332 Herberts Corners Rd</t>
-  </si>
-  <si>
-    <t>Greely</t>
-  </si>
-  <si>
-    <t>K4P 1H3</t>
-  </si>
-  <si>
-    <t>6 Blue Heron Dr</t>
-  </si>
-  <si>
-    <t>Pefferlaw</t>
-  </si>
-  <si>
-    <t>L0E 1N0</t>
-  </si>
-  <si>
-    <t>1409 Acadia Dr SE</t>
-  </si>
-  <si>
-    <t>T2J 4C6</t>
-  </si>
-  <si>
-    <t>57 Lewis St</t>
-  </si>
-  <si>
-    <t>M4M 2H2</t>
-  </si>
-  <si>
-    <t>205-46000 Thomas Rd</t>
-  </si>
-  <si>
-    <t>V2R 5W6</t>
-  </si>
-  <si>
-    <t>158 Humbercrest Blvd</t>
-  </si>
-  <si>
-    <t>M6S 4L3</t>
-  </si>
-  <si>
-    <t>7816 Birch Dr</t>
-  </si>
-  <si>
-    <t>Washago</t>
-  </si>
-  <si>
-    <t>L0K 2B0</t>
-  </si>
-  <si>
-    <t>41 Badgerow Ave</t>
-  </si>
-  <si>
-    <t>M4M 1V5</t>
-  </si>
-  <si>
-    <t>A311-20716 Willoughby Town Centre Dr</t>
-  </si>
-  <si>
-    <t>V2Y 3J7</t>
-  </si>
-  <si>
-    <t>PO Box 111</t>
-  </si>
-  <si>
-    <t>Creston</t>
-  </si>
-  <si>
-    <t>V0B 1G0</t>
-  </si>
-  <si>
-    <t>998 Rock Rd</t>
-  </si>
-  <si>
-    <t>Douro-dummer</t>
-  </si>
-  <si>
-    <t>K0L 3A0</t>
-  </si>
-  <si>
-    <t>7371 Davemark Crt</t>
-  </si>
-  <si>
-    <t>L5N 7P3</t>
-  </si>
-  <si>
-    <t>1046 Jay Cres</t>
-  </si>
-  <si>
-    <t>Squamish</t>
-  </si>
-  <si>
-    <t>V8B 0P3</t>
-  </si>
-  <si>
-    <t>3911 Primrose Lane</t>
-  </si>
-  <si>
-    <t>Vineland</t>
-  </si>
-  <si>
-    <t>L0R 2C0</t>
-  </si>
-  <si>
-    <t>112 Fairview Ave</t>
-  </si>
-  <si>
-    <t>N6C 4T6</t>
-  </si>
-  <si>
-    <t>65 exten Toronto Rd</t>
-  </si>
-  <si>
-    <t>Mayfield</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>C0A 1N0</t>
-  </si>
-  <si>
-    <t>16 Oriole Cres</t>
-  </si>
-  <si>
-    <t>N1G 1J4</t>
-  </si>
-  <si>
-    <t>3225 Singleton Ave</t>
-  </si>
-  <si>
-    <t>N6L 0B5</t>
-  </si>
-  <si>
-    <t>Christopher Lake</t>
-  </si>
-  <si>
-    <t>S0J 0N0</t>
-  </si>
-  <si>
-    <t>3645 Dix Rd</t>
-  </si>
-  <si>
-    <t>V9T 2W1</t>
-  </si>
-  <si>
-    <t>275-500 Rivercrest Cres</t>
-  </si>
-  <si>
-    <t>St. Albert</t>
-  </si>
-  <si>
-    <t>T8N 3B9</t>
-  </si>
-  <si>
-    <t>307-483 Linwell Rd</t>
-  </si>
-  <si>
-    <t>L2M 2P6</t>
-  </si>
-  <si>
-    <t>13445 Loyalist Pky</t>
-  </si>
-  <si>
-    <t>Picton</t>
-  </si>
-  <si>
-    <t>K0K 2T0</t>
-  </si>
-  <si>
-    <t>PO Box 334</t>
-  </si>
-  <si>
-    <t>New Sarepta</t>
-  </si>
-  <si>
-    <t>T0B 3M0</t>
-  </si>
-  <si>
-    <t>205-59 22 Ave SW</t>
-  </si>
-  <si>
-    <t>T2S 3C7</t>
-  </si>
-  <si>
-    <t>146 Faraday St</t>
-  </si>
-  <si>
-    <t>K1Y 3M4</t>
-  </si>
-  <si>
-    <t>401-340 Lonsdale Rd</t>
-  </si>
-  <si>
-    <t>M5P 1R2</t>
-  </si>
-  <si>
-    <t>203-1265 Wellington St W</t>
-  </si>
-  <si>
-    <t>K1Y 4L2</t>
-  </si>
-  <si>
-    <t>570 3rd Blvd</t>
-  </si>
-  <si>
-    <t>Kingsville</t>
-  </si>
-  <si>
-    <t>N9Y 3W2</t>
-  </si>
-  <si>
-    <t>114 1er Chemin du Lac-Clair</t>
-  </si>
-  <si>
-    <t>Falardeau</t>
-  </si>
-  <si>
-    <t>G0V 1C0</t>
-  </si>
-  <si>
-    <t>34-765 Oklahoma Dr</t>
-  </si>
-  <si>
-    <t>Pickering</t>
-  </si>
-  <si>
-    <t>L1W 3C9</t>
-  </si>
-  <si>
-    <t>410-6117 Uplands Drive</t>
-  </si>
-  <si>
-    <t>V9V 1W8</t>
-  </si>
-  <si>
-    <t>36 Stockman Cres</t>
-  </si>
-  <si>
-    <t>L7G 1J7</t>
-  </si>
-  <si>
-    <t>4520 Credit Pointe Dr</t>
-  </si>
-  <si>
-    <t>L5M 3M2</t>
-  </si>
-  <si>
-    <t>PO Box 2551 Stn Main</t>
-  </si>
-  <si>
-    <t>V8B 0B7</t>
-  </si>
-  <si>
-    <t>52 Cloverleaf Dr</t>
-  </si>
-  <si>
-    <t>New Minas</t>
-  </si>
-  <si>
-    <t>B4N 4N9</t>
-  </si>
-  <si>
-    <t>850 montee Lafontaine</t>
-  </si>
-  <si>
-    <t>Casselman</t>
-  </si>
-  <si>
-    <t>K0A 1M0</t>
-  </si>
-  <si>
-    <t>720 Fanshawe Park Rd E</t>
-  </si>
-  <si>
-    <t>N5X 2B9</t>
-  </si>
-  <si>
-    <t>25504 Sh 642</t>
-  </si>
-  <si>
-    <t>Sturgeon County</t>
-  </si>
-  <si>
-    <t>T8R 2A3</t>
-  </si>
-  <si>
-    <t>P.O. Box 128</t>
-  </si>
-  <si>
-    <t>Birch Hills</t>
-  </si>
-  <si>
-    <t>S0J 0G0</t>
-  </si>
-  <si>
-    <t>1040 Mapleview Rd</t>
-  </si>
-  <si>
-    <t>245 Rittenhouse Rd</t>
-  </si>
-  <si>
-    <t>Kitchener</t>
-  </si>
-  <si>
-    <t>N2E 2V3</t>
-  </si>
-  <si>
-    <t>16 Beechwood Path</t>
-  </si>
-  <si>
-    <t>Huntsville</t>
-  </si>
-  <si>
-    <t>P1H 1S8</t>
-  </si>
-  <si>
-    <t>1-977 Convent Pl</t>
-  </si>
-  <si>
-    <t>V8V 2Y9</t>
-  </si>
-  <si>
-    <t>6 rue Annick</t>
-  </si>
-  <si>
-    <t>Morin-heights</t>
-  </si>
-  <si>
-    <t>J0R 1H0</t>
-  </si>
-  <si>
-    <t>53 Alexandria Ave</t>
-  </si>
-  <si>
-    <t>St Thomas</t>
-  </si>
-  <si>
-    <t>N5P 3M7</t>
-  </si>
-  <si>
-    <t>P.O. Box 125</t>
-  </si>
-  <si>
-    <t>Zephyr</t>
-  </si>
-  <si>
-    <t>L0E 1T0</t>
-  </si>
-  <si>
-    <t>12 Oak Bluff Rd</t>
-  </si>
-  <si>
-    <t>Brandon</t>
-  </si>
-  <si>
-    <t>R7C 1A2</t>
-  </si>
-  <si>
-    <t>Dollard des Ormeaux</t>
-  </si>
-  <si>
-    <t>PQ</t>
-  </si>
-  <si>
-    <t>H9A3H5</t>
-  </si>
-  <si>
-    <t>5580 South Talbot Rd</t>
-  </si>
-  <si>
-    <t>Maidstone</t>
-  </si>
-  <si>
-    <t>N0R 1K0</t>
-  </si>
-  <si>
-    <t>1203-155 Front St N</t>
-  </si>
-  <si>
-    <t>N7T 7V5</t>
-  </si>
-  <si>
-    <t>1004-1967 Barclay S</t>
-  </si>
-  <si>
-    <t>V6G 1L1</t>
-  </si>
-  <si>
-    <t>PO Box 104</t>
-  </si>
-  <si>
-    <t>Mindemoya</t>
-  </si>
-  <si>
-    <t>P0P 1S0</t>
-  </si>
-  <si>
-    <t>3925 Malagash Rd</t>
-  </si>
-  <si>
-    <t>Malagash Point</t>
-  </si>
-  <si>
-    <t>B0K 1E0</t>
-  </si>
-  <si>
-    <t>16 Acres</t>
-  </si>
-  <si>
-    <t>Wentworth</t>
-  </si>
-  <si>
-    <t>J8H 0A3</t>
-  </si>
-  <si>
-    <t>584 Artisan Ln</t>
-  </si>
-  <si>
-    <t>Bowen Island</t>
-  </si>
-  <si>
-    <t>V0N1G1</t>
-  </si>
-  <si>
-    <t>215-1700 Eglinton Ave E</t>
-  </si>
-  <si>
-    <t>North York</t>
-  </si>
-  <si>
-    <t>M4A 2X4</t>
-  </si>
-  <si>
-    <t>80 Mill St # 307</t>
-  </si>
-  <si>
-    <t>M5A 4T3</t>
-  </si>
-  <si>
-    <t>2504-1255 Bayly St</t>
-  </si>
-  <si>
-    <t>L1W0B6</t>
-  </si>
-  <si>
-    <t>116 The Esplanade Ap. 213</t>
-  </si>
-  <si>
-    <t>M5E 1Y7</t>
-  </si>
-  <si>
-    <t>107-400 Rue Thomas</t>
-  </si>
-  <si>
-    <t>J8H 1V7</t>
-  </si>
-  <si>
-    <t>121 Roxborough St West</t>
-  </si>
-  <si>
-    <t>M5R 1T9</t>
-  </si>
-  <si>
-    <t>301-280 Boulevard Hymus</t>
-  </si>
-  <si>
-    <t>Pointe Claire</t>
-  </si>
-  <si>
-    <t>H9R 6B6</t>
-  </si>
-  <si>
-    <t>5571 County Rd 27</t>
-  </si>
-  <si>
-    <t>Williamstown</t>
-  </si>
-  <si>
-    <t>K0C 2J0</t>
-  </si>
-  <si>
-    <t>72 Glengarry Cres</t>
-  </si>
-  <si>
-    <t>V7S 1B5</t>
-  </si>
-  <si>
-    <t>202 - 133 E Esplanade Ave</t>
-  </si>
-  <si>
-    <t>North Vancouver</t>
-  </si>
-  <si>
-    <t>V7L 1A1</t>
-  </si>
-  <si>
-    <t>244 Rue Savoie Est</t>
-  </si>
-  <si>
-    <t>Caraquet</t>
-  </si>
-  <si>
-    <t>E1W 1A4</t>
-  </si>
-  <si>
-    <t>192 Hartson Rd</t>
-  </si>
-  <si>
-    <t>N6H 5B7</t>
-  </si>
-  <si>
-    <t>52 Sunnybrooke Dr</t>
-  </si>
-  <si>
-    <t>K2M 2P2</t>
-  </si>
-  <si>
-    <t>39 Lemonwood Dr</t>
-  </si>
-  <si>
-    <t>M9A 4L3</t>
-  </si>
-  <si>
-    <t>608-707 St Clair Ave W</t>
-  </si>
-  <si>
-    <t>M6C 4A1</t>
-  </si>
-  <si>
-    <t>186 Centennial Dr</t>
-  </si>
-  <si>
-    <t>PO Box 1878</t>
-  </si>
-  <si>
-    <t>Minnedosa</t>
-  </si>
-  <si>
-    <t>R0J 1E0</t>
-  </si>
-  <si>
-    <t>67 Byron Avenue East</t>
-  </si>
-  <si>
-    <t>N6C 1C6</t>
-  </si>
-  <si>
-    <t>509-580 Christie St</t>
-  </si>
-  <si>
-    <t>M6G 3E3</t>
-  </si>
-  <si>
-    <t>2575 Edenhurst Dr</t>
-  </si>
-  <si>
-    <t>L5A 2L4</t>
-  </si>
-  <si>
-    <t>9 Falconwood Pl</t>
-  </si>
-  <si>
-    <t>Brampton</t>
-  </si>
-  <si>
-    <t>L6R 3J3</t>
-  </si>
-  <si>
-    <t>2358 Clarke Drive</t>
-  </si>
-  <si>
-    <t>Abbotsford</t>
-  </si>
-  <si>
-    <t>V2S 3V3</t>
-  </si>
-  <si>
-    <t>3505 Route 915</t>
-  </si>
-  <si>
-    <t>Hebron</t>
-  </si>
-  <si>
-    <t>E4H2C3</t>
-  </si>
-  <si>
-    <t>PO Box 2108</t>
-  </si>
-  <si>
-    <t>Bayfield</t>
-  </si>
-  <si>
-    <t>N0M 1G0</t>
-  </si>
-  <si>
-    <t>2058 Seawind Way</t>
-  </si>
-  <si>
-    <t>Sidney</t>
-  </si>
-  <si>
-    <t>V8L 0C4</t>
-  </si>
-  <si>
-    <t>548 Steele St</t>
-  </si>
-  <si>
-    <t>Port Colborne</t>
-  </si>
-  <si>
-    <t>L3K 4Y3</t>
-  </si>
-  <si>
-    <t>2916 9th Ave</t>
-  </si>
-  <si>
-    <t>Castlegar</t>
-  </si>
-  <si>
-    <t>V1N 2Z1</t>
-  </si>
-  <si>
-    <t>17 Dunlace Dr</t>
-  </si>
-  <si>
-    <t>M2L 2R8</t>
-  </si>
-  <si>
-    <t>111 Parkvalley Dr SE</t>
-  </si>
-  <si>
-    <t>T2J 4V1</t>
-  </si>
-  <si>
-    <t>301-130 Abbott St</t>
-  </si>
-  <si>
-    <t>Penticton</t>
-  </si>
-  <si>
-    <t>V2A 8P3</t>
-  </si>
-  <si>
-    <t>2223 Middlesmoor Cres</t>
-  </si>
-  <si>
-    <t>L7P 3X2</t>
-  </si>
-  <si>
-    <t>210 4728 53 St</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>V4K 2Z1</t>
-  </si>
-  <si>
-    <t>678-1333 W Broadway Vancouve</t>
-  </si>
-  <si>
-    <t>V6H 4C1</t>
-  </si>
-  <si>
-    <t>35-619 Evans Ave</t>
-  </si>
-  <si>
-    <t>M8W 2W4</t>
-  </si>
-  <si>
-    <t>Box 24</t>
-  </si>
-  <si>
-    <t>Saint Claude</t>
-  </si>
-  <si>
-    <t>R0G1Z0</t>
-  </si>
-  <si>
-    <t>45 Grand Forest Dr</t>
-  </si>
-  <si>
-    <t>Barrie</t>
-  </si>
-  <si>
-    <t>L4N8K4</t>
-  </si>
-  <si>
-    <t>47 Cross Street</t>
-  </si>
-  <si>
-    <t>Dundas</t>
-  </si>
-  <si>
-    <t>L9H 2R5</t>
-  </si>
-  <si>
-    <t>64 Safe Blvd</t>
-  </si>
-  <si>
-    <t>Belleville</t>
-  </si>
-  <si>
-    <t>K8N 2W9</t>
-  </si>
-  <si>
-    <t>28-3387 King George Blvd</t>
-  </si>
-  <si>
-    <t>Surrey</t>
-  </si>
-  <si>
-    <t>V4P 1B7</t>
-  </si>
-  <si>
-    <t>701 Newcastle Boulevard</t>
-  </si>
-  <si>
-    <t>Miramichi</t>
-  </si>
-  <si>
-    <t>E1V 2L4</t>
-  </si>
-  <si>
-    <t>62 Charlotte Street</t>
-  </si>
-  <si>
-    <t>Sackville</t>
-  </si>
-  <si>
-    <t>E4L2Y7</t>
-  </si>
-  <si>
-    <t>122-80 Quebec Avenue</t>
-  </si>
-  <si>
-    <t>M6P 4B7</t>
-  </si>
-  <si>
-    <t>865 Reg Pope Blvd</t>
-  </si>
-  <si>
-    <t>Timmins</t>
-  </si>
-  <si>
-    <t>P4N8K8</t>
-  </si>
-  <si>
-    <t>321 Southbrook Drive</t>
-  </si>
-  <si>
-    <t>Binbrook</t>
-  </si>
-  <si>
-    <t>L0R1C0</t>
   </si>
 </sst>
 </file>
@@ -4892,25 +3434,15 @@
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
@@ -4924,3914 +3456,2050 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="1" t="s">
-        <v>277</v>
-      </c>
+      <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="1" t="s">
-        <v>279</v>
-      </c>
+      <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="1" t="s">
-        <v>282</v>
-      </c>
+      <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="1" t="s">
-        <v>288</v>
-      </c>
+      <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B123" s="7">
-        <v>203.0</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="7"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="1" t="s">
-        <v>306</v>
-      </c>
+      <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="1" t="s">
-        <v>312</v>
-      </c>
+      <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="1" t="s">
-        <v>314</v>
-      </c>
+      <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="1" t="s">
-        <v>316</v>
-      </c>
+      <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="1" t="s">
-        <v>318</v>
-      </c>
+      <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="1" t="s">
-        <v>321</v>
-      </c>
+      <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="1" t="s">
-        <v>326</v>
-      </c>
+      <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="1" t="s">
-        <v>332</v>
-      </c>
+      <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="1" t="s">
-        <v>334</v>
-      </c>
+      <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="1" t="s">
-        <v>336</v>
-      </c>
+      <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="1" t="s">
-        <v>338</v>
-      </c>
+      <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="1" t="s">
-        <v>341</v>
-      </c>
+      <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="1" t="s">
-        <v>347</v>
-      </c>
+      <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="1" t="s">
-        <v>351</v>
-      </c>
+      <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="1" t="s">
-        <v>353</v>
-      </c>
+      <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="1" t="s">
-        <v>356</v>
-      </c>
+      <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="1" t="s">
-        <v>359</v>
-      </c>
+      <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="1" t="s">
-        <v>365</v>
-      </c>
+      <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="1" t="s">
-        <v>367</v>
-      </c>
+      <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="1" t="s">
-        <v>369</v>
-      </c>
+      <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="1" t="s">
-        <v>372</v>
-      </c>
+      <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="1" t="s">
-        <v>375</v>
-      </c>
+      <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="1" t="s">
-        <v>378</v>
-      </c>
+      <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="1" t="s">
-        <v>380</v>
-      </c>
+      <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="1" t="s">
-        <v>384</v>
-      </c>
+      <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="1" t="s">
-        <v>386</v>
-      </c>
+      <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="1" t="s">
-        <v>389</v>
-      </c>
+      <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="1" t="s">
-        <v>395</v>
-      </c>
+      <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="1" t="s">
-        <v>400</v>
-      </c>
+      <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="1" t="s">
-        <v>405</v>
-      </c>
+      <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="1" t="s">
-        <v>408</v>
-      </c>
+      <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="1" t="s">
-        <v>411</v>
-      </c>
+      <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="1" t="s">
-        <v>414</v>
-      </c>
+      <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="1" t="s">
-        <v>420</v>
-      </c>
+      <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="1" t="s">
-        <v>423</v>
-      </c>
+      <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="1" t="s">
-        <v>430</v>
-      </c>
+      <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="1" t="s">
-        <v>432</v>
-      </c>
+      <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
-      <c r="F173" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="1" t="s">
-        <v>434</v>
-      </c>
+      <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
-      <c r="F174" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="1" t="s">
-        <v>438</v>
-      </c>
+      <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
-      <c r="F175" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="1" t="s">
-        <v>441</v>
-      </c>
+      <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
-      <c r="F176" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="1" t="s">
-        <v>443</v>
-      </c>
+      <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
-      <c r="F177" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="1" t="s">
-        <v>445</v>
-      </c>
+      <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
-      <c r="F178" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="1" t="s">
-        <v>448</v>
-      </c>
+      <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
-      <c r="F179" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="1" t="s">
-        <v>451</v>
-      </c>
+      <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
-      <c r="F180" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="1" t="s">
-        <v>454</v>
-      </c>
+      <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
-      <c r="F181" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="1" t="s">
-        <v>456</v>
-      </c>
+      <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
-      <c r="F182" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="1" t="s">
-        <v>459</v>
-      </c>
+      <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
-      <c r="F183" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="1" t="s">
-        <v>462</v>
-      </c>
+      <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
-      <c r="F184" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="1" t="s">
-        <v>464</v>
-      </c>
+      <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
-      <c r="F185" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="1" t="s">
-        <v>466</v>
-      </c>
+      <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
-      <c r="F186" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="1" t="s">
-        <v>468</v>
-      </c>
+      <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="1" t="s">
-        <v>471</v>
-      </c>
+      <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
-      <c r="F188" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="1" t="s">
-        <v>473</v>
-      </c>
+      <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
-      <c r="F189" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="1" t="s">
-        <v>475</v>
-      </c>
+      <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
-      <c r="F190" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="1" t="s">
-        <v>477</v>
-      </c>
+      <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
-      <c r="F191" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="1" t="s">
-        <v>480</v>
-      </c>
+      <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
-      <c r="F192" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="1" t="s">
-        <v>483</v>
-      </c>
+      <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
-      <c r="F193" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="1" t="s">
-        <v>486</v>
-      </c>
+      <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
-      <c r="F194" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="1" t="s">
-        <v>488</v>
-      </c>
+      <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
-      <c r="F195" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="1" t="s">
-        <v>490</v>
-      </c>
+      <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
-      <c r="F196" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="1" t="s">
-        <v>493</v>
-      </c>
+      <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
-      <c r="F197" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="I197" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="1" t="s">
-        <v>495</v>
-      </c>
+      <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
-      <c r="F198" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I198" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="1" t="s">
-        <v>498</v>
-      </c>
+      <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
-      <c r="F199" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I199" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="1" t="s">
-        <v>500</v>
-      </c>
+      <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
-      <c r="F200" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="1" t="s">
-        <v>503</v>
-      </c>
+      <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
-      <c r="F201" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="1" t="s">
-        <v>505</v>
-      </c>
+      <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
-      <c r="F202" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="1" t="s">
-        <v>508</v>
-      </c>
+      <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
-      <c r="F203" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="1" t="s">
-        <v>511</v>
-      </c>
+      <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
-      <c r="F204" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="1" t="s">
-        <v>514</v>
-      </c>
+      <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
-      <c r="F205" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I205" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="1" t="s">
-        <v>516</v>
-      </c>
+      <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
-      <c r="F206" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="1" t="s">
-        <v>518</v>
-      </c>
+      <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
-      <c r="F207" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="1" t="s">
-        <v>520</v>
-      </c>
+      <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
-      <c r="F208" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="1" t="s">
-        <v>522</v>
-      </c>
+      <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
-      <c r="F209" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="1" t="s">
-        <v>525</v>
-      </c>
+      <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
-      <c r="F210" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="1" t="s">
-        <v>527</v>
-      </c>
+      <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
-      <c r="F211" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="1" t="s">
-        <v>529</v>
-      </c>
+      <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
-      <c r="F212" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="1" t="s">
-        <v>532</v>
-      </c>
+      <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
-      <c r="F213" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="1" t="s">
-        <v>535</v>
-      </c>
+      <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
-      <c r="F214" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I214" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="1" t="s">
-        <v>537</v>
-      </c>
+      <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
-      <c r="F215" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="1" t="s">
-        <v>540</v>
-      </c>
+      <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
-      <c r="F216" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I216" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="1" t="s">
-        <v>543</v>
-      </c>
+      <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
-      <c r="F217" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="I217" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="1" t="s">
-        <v>545</v>
-      </c>
+      <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
-      <c r="F218" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I218" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="1" t="s">
-        <v>549</v>
-      </c>
+      <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
-      <c r="F219" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="1" t="s">
-        <v>551</v>
-      </c>
+      <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
-      <c r="F220" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I220" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
-      <c r="F221" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="I221" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="1" t="s">
-        <v>555</v>
-      </c>
+      <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
-      <c r="F222" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G222" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I222" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="1" t="s">
-        <v>557</v>
-      </c>
+      <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
-      <c r="F223" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="I223" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="1" t="s">
-        <v>560</v>
-      </c>
+      <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
-      <c r="F224" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I224" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
-      <c r="F225" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="1" t="s">
-        <v>565</v>
-      </c>
+      <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
-      <c r="F226" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H226" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I226" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="1" t="s">
-        <v>568</v>
-      </c>
+      <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
-      <c r="F227" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="I227" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="1" t="s">
-        <v>570</v>
-      </c>
+      <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
-      <c r="F228" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="1" t="s">
-        <v>572</v>
-      </c>
+      <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
-      <c r="F229" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="I229" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="1" t="s">
-        <v>574</v>
-      </c>
+      <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
-      <c r="F230" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="I230" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="1" t="s">
-        <v>576</v>
-      </c>
+      <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
-      <c r="F231" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="1" t="s">
-        <v>579</v>
-      </c>
+      <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
-      <c r="F232" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G232" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="1" t="s">
-        <v>582</v>
-      </c>
+      <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
-      <c r="F233" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="1" t="s">
-        <v>585</v>
-      </c>
+      <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
-      <c r="F234" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H234" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="I234" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="1" t="s">
-        <v>587</v>
-      </c>
+      <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
-      <c r="F235" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G235" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="I235" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="1" t="s">
-        <v>589</v>
-      </c>
+      <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
-      <c r="F236" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="1" t="s">
-        <v>591</v>
-      </c>
+      <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
-      <c r="F237" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I237" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="1" t="s">
-        <v>593</v>
-      </c>
+      <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
-      <c r="F238" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="1" t="s">
-        <v>596</v>
-      </c>
+      <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
-      <c r="F239" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H239" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="I239" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="1" t="s">
-        <v>599</v>
-      </c>
+      <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
-      <c r="F240" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G240" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H240" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="1" t="s">
-        <v>601</v>
-      </c>
+      <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
-      <c r="F241" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G241" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H241" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="I241" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="1" t="s">
-        <v>604</v>
-      </c>
+      <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
-      <c r="F242" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H242" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="1" t="s">
-        <v>607</v>
-      </c>
+      <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
-      <c r="F243" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H243" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="I243" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="1" t="s">
-        <v>608</v>
-      </c>
+      <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
-      <c r="F244" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="I244" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="1" t="s">
-        <v>611</v>
-      </c>
+      <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
-      <c r="F245" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="I245" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="1" t="s">
-        <v>614</v>
-      </c>
+      <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
-      <c r="F246" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="1" t="s">
-        <v>616</v>
-      </c>
+      <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
-      <c r="F247" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H247" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I247" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="1" t="s">
-        <v>619</v>
-      </c>
+      <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
-      <c r="F248" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="I248" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="1" t="s">
-        <v>622</v>
-      </c>
+      <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
-      <c r="F249" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H249" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="1" t="s">
-        <v>625</v>
-      </c>
+      <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
-      <c r="F250" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="I250" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="7">
-        <v>5.149727632E9</v>
-      </c>
+      <c r="A251" s="7"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
-      <c r="F251" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="H251" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="I251" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="1" t="s">
-        <v>631</v>
-      </c>
+      <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
-      <c r="F252" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G252" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H252" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="I252" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="1" t="s">
-        <v>634</v>
-      </c>
+      <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
-      <c r="F253" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I253" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="1" t="s">
-        <v>636</v>
-      </c>
+      <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
-      <c r="F254" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="1" t="s">
-        <v>638</v>
-      </c>
+      <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
-      <c r="F255" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="I255" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="1" t="s">
-        <v>641</v>
-      </c>
+      <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
-      <c r="F256" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I256" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="1" t="s">
-        <v>644</v>
-      </c>
+      <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
-      <c r="F257" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H257" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="I257" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="1" t="s">
-        <v>647</v>
-      </c>
+      <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
-      <c r="F258" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="I258" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="1"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="1" t="s">
-        <v>650</v>
-      </c>
+      <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
-      <c r="F259" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H259" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="I259" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="1"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="1" t="s">
-        <v>653</v>
-      </c>
+      <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
-      <c r="F260" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G260" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H260" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="I260" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="1" t="s">
-        <v>655</v>
-      </c>
+      <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
-      <c r="F261" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="I261" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="1" t="s">
-        <v>657</v>
-      </c>
+      <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
-      <c r="F262" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G262" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="I262" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="1" t="s">
-        <v>659</v>
-      </c>
+      <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
-      <c r="F263" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G263" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H263" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="I263" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="1" t="s">
-        <v>661</v>
-      </c>
+      <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
-      <c r="F264" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G264" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I264" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="1" t="s">
-        <v>663</v>
-      </c>
+      <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
-      <c r="F265" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="I265" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="1" t="s">
-        <v>666</v>
-      </c>
+      <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
-      <c r="F266" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="I266" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="1" t="s">
-        <v>669</v>
-      </c>
+      <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
-      <c r="F267" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G267" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="I267" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="1" t="s">
-        <v>671</v>
-      </c>
+      <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
-      <c r="F268" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H268" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="I268" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="1"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="1" t="s">
-        <v>674</v>
-      </c>
+      <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
-      <c r="F269" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="G269" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H269" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="I269" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="1"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="1" t="s">
-        <v>677</v>
-      </c>
+      <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
-      <c r="F270" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G270" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="I270" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="1" t="s">
-        <v>679</v>
-      </c>
+      <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
-      <c r="F271" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="I271" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="I271" s="1"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="1" t="s">
-        <v>681</v>
-      </c>
+      <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
-      <c r="F272" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="1" t="s">
-        <v>683</v>
-      </c>
+      <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
-      <c r="F273" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="I273" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>686</v>
-      </c>
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
-      <c r="F274" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="G274" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H274" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="I274" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="1" t="s">
-        <v>689</v>
-      </c>
+      <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
-      <c r="F275" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G275" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H275" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="I275" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="1" t="s">
-        <v>691</v>
-      </c>
+      <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
-      <c r="F276" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G276" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H276" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="I276" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="1" t="s">
-        <v>693</v>
-      </c>
+      <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
-      <c r="F277" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G277" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="I277" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="1" t="s">
-        <v>695</v>
-      </c>
+      <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
-      <c r="F278" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="G278" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="I278" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="1" t="s">
-        <v>698</v>
-      </c>
+      <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
-      <c r="F279" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="I279" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="1" t="s">
-        <v>701</v>
-      </c>
+      <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
-      <c r="F280" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H280" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="I280" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="1" t="s">
-        <v>704</v>
-      </c>
+      <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
-      <c r="F281" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H281" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="I281" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="1" t="s">
-        <v>707</v>
-      </c>
+      <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
-      <c r="F282" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H282" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="1" t="s">
-        <v>710</v>
-      </c>
+      <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
-      <c r="F283" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="G283" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H283" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="I283" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="I283" s="1"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="1" t="s">
-        <v>713</v>
-      </c>
+      <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
-      <c r="F284" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="G284" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="I284" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="I284" s="1"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="1" t="s">
-        <v>716</v>
-      </c>
+      <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
-      <c r="F285" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H285" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="I285" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="1" t="s">
-        <v>718</v>
-      </c>
+      <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
-      <c r="F286" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G286" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H286" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="I286" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="1" t="s">
-        <v>720</v>
-      </c>
+      <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
-      <c r="F287" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H287" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="I287" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="1" t="s">
-        <v>723</v>
-      </c>
+      <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
-      <c r="F288" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G288" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H288" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="I288" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="1" t="s">
-        <v>725</v>
-      </c>
+      <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
-      <c r="F289" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="G289" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H289" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="I289" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="1" t="s">
-        <v>728</v>
-      </c>
+      <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
-      <c r="F290" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="I290" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="1" t="s">
-        <v>730</v>
-      </c>
+      <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
-      <c r="F291" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G291" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="1" t="s">
-        <v>732</v>
-      </c>
+      <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
-      <c r="F292" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="G292" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H292" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="I292" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="1" t="s">
-        <v>735</v>
-      </c>
+      <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
-      <c r="F293" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="G293" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H293" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="I293" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="1" t="s">
-        <v>738</v>
-      </c>
+      <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
-      <c r="F294" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G294" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H294" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="I294" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="1" t="s">
-        <v>741</v>
-      </c>
+      <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
-      <c r="F295" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="G295" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H295" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="I295" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="1" t="s">
-        <v>744</v>
-      </c>
+      <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
-      <c r="F296" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H296" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="I296" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="1" t="s">
-        <v>747</v>
-      </c>
+      <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
-      <c r="F297" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="G297" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H297" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="I297" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="I297" s="1"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="1" t="s">
-        <v>750</v>
-      </c>
+      <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
-      <c r="F298" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="G298" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H298" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="I298" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="I298" s="1"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="1" t="s">
-        <v>753</v>
-      </c>
+      <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
-      <c r="F299" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G299" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H299" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="I299" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="I299" s="1"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="1"/>
@@ -8842,51 +5510,29 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
-      <c r="I300" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="I300" s="1"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="1" t="s">
-        <v>755</v>
-      </c>
+      <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
-      <c r="F301" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="G301" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H301" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="I301" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="1" t="s">
-        <v>758</v>
-      </c>
+      <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
-      <c r="F302" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="G302" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H302" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="I302" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="I302" s="1"/>
     </row>
     <row r="303" ht="15.75" customHeight="1"/>
     <row r="304" ht="15.75" customHeight="1"/>
